--- a/team_specific_matrix/Greensboro_A.xlsx
+++ b/team_specific_matrix/Greensboro_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1957671957671958</v>
+        <v>0.1875</v>
       </c>
       <c r="C2">
-        <v>0.5767195767195767</v>
+        <v>0.5982142857142857</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01587301587301587</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1322751322751323</v>
+        <v>0.125</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07936507936507936</v>
+        <v>0.07589285714285714</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01834862385321101</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7706422018348624</v>
+        <v>0.7910447761194029</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2110091743119266</v>
+        <v>0.1940298507462687</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03703703703703703</v>
+        <v>0.0625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6296296296296297</v>
+        <v>0.59375</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04102564102564103</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02564102564102564</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09230769230769231</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.241025641025641</v>
+        <v>0.2434782608695652</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01538461538461539</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1692307692307692</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="R6">
-        <v>0.07692307692307693</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="S6">
-        <v>0.3384615384615385</v>
+        <v>0.3347826086956522</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09202453987730061</v>
+        <v>0.09045226130653267</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -802,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.006134969325153374</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="F7">
-        <v>0.07975460122699386</v>
+        <v>0.08542713567839195</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1411042944785276</v>
+        <v>0.1306532663316583</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.05521472392638037</v>
+        <v>0.05025125628140704</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1288343558282209</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="R7">
-        <v>0.1226993865030675</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="S7">
-        <v>0.3742331288343558</v>
+        <v>0.3869346733668342</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06430868167202572</v>
+        <v>0.06775067750677506</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.022508038585209</v>
+        <v>0.02168021680216802</v>
       </c>
       <c r="E8">
-        <v>0.003215434083601286</v>
+        <v>0.002710027100271003</v>
       </c>
       <c r="F8">
-        <v>0.0707395498392283</v>
+        <v>0.06775067750677506</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1286173633440514</v>
+        <v>0.1327913279132791</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01929260450160772</v>
+        <v>0.02168021680216802</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1382636655948553</v>
+        <v>0.1490514905149052</v>
       </c>
       <c r="R8">
-        <v>0.1414790996784566</v>
+        <v>0.1409214092140921</v>
       </c>
       <c r="S8">
-        <v>0.4115755627009646</v>
+        <v>0.3956639566395664</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06349206349206349</v>
+        <v>0.08256880733944955</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01058201058201058</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08465608465608465</v>
+        <v>0.08256880733944955</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1322751322751323</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02116402116402116</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1481481481481481</v>
+        <v>0.1467889908256881</v>
       </c>
       <c r="R9">
-        <v>0.1428571428571428</v>
+        <v>0.1422018348623853</v>
       </c>
       <c r="S9">
-        <v>0.3968253968253968</v>
+        <v>0.3807339449541284</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08601134215500945</v>
+        <v>0.08562197092084006</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01323251417769376</v>
+        <v>0.01453957996768982</v>
       </c>
       <c r="E10">
-        <v>0.000945179584120983</v>
+        <v>0.0008077544426494346</v>
       </c>
       <c r="F10">
-        <v>0.07655954631379962</v>
+        <v>0.07673667205169628</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1049149338374291</v>
+        <v>0.1082390953150242</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02079395085066163</v>
+        <v>0.02180936995153474</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2155009451795841</v>
+        <v>0.2148626817447496</v>
       </c>
       <c r="R10">
-        <v>0.1172022684310019</v>
+        <v>0.1138933764135703</v>
       </c>
       <c r="S10">
-        <v>0.3648393194706994</v>
+        <v>0.3634894991922455</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1346153846153846</v>
+        <v>0.1326860841423948</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07307692307692308</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>0.1941747572815534</v>
       </c>
       <c r="L11">
-        <v>0.5769230769230769</v>
+        <v>0.5922330097087378</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01538461538461539</v>
+        <v>0.01294498381877023</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7232704402515723</v>
+        <v>0.734375</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2138364779874214</v>
+        <v>0.1979166666666667</v>
       </c>
       <c r="K12">
-        <v>0.006289308176100629</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="L12">
-        <v>0.03773584905660377</v>
+        <v>0.03645833333333334</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01886792452830189</v>
+        <v>0.02604166666666667</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6333333333333333</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2666666666666667</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04210526315789474</v>
+        <v>0.03930131004366812</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1631578947368421</v>
+        <v>0.1528384279475982</v>
       </c>
       <c r="I15">
-        <v>0.06315789473684211</v>
+        <v>0.05676855895196507</v>
       </c>
       <c r="J15">
-        <v>0.3</v>
+        <v>0.2882096069868996</v>
       </c>
       <c r="K15">
-        <v>0.06315789473684211</v>
+        <v>0.06986899563318777</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07368421052631578</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2947368421052631</v>
+        <v>0.3100436681222707</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01612903225806452</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1612903225806452</v>
+        <v>0.16</v>
       </c>
       <c r="I16">
-        <v>0.04838709677419355</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="J16">
-        <v>0.4274193548387097</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="K16">
-        <v>0.1048387096774194</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.008064516129032258</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03225806451612903</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2016129032258064</v>
+        <v>0.2066666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008571428571428572</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2057142857142857</v>
+        <v>0.2163461538461539</v>
       </c>
       <c r="I17">
-        <v>0.1028571428571429</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="J17">
-        <v>0.42</v>
+        <v>0.4110576923076923</v>
       </c>
       <c r="K17">
-        <v>0.09428571428571429</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008571428571428572</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002403846153846154</v>
       </c>
       <c r="O17">
-        <v>0.04571428571428571</v>
+        <v>0.04086538461538462</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1142857142857143</v>
+        <v>0.1177884615384615</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.013215859030837</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1718061674008811</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="I18">
-        <v>0.118942731277533</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="J18">
-        <v>0.4140969162995595</v>
+        <v>0.4204545454545455</v>
       </c>
       <c r="K18">
-        <v>0.1101321585903084</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01762114537444934</v>
+        <v>0.01893939393939394</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03964757709251102</v>
+        <v>0.05681818181818182</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1145374449339207</v>
+        <v>0.1060606060606061</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01085883514313919</v>
+        <v>0.0143824027072758</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1510365251727542</v>
+        <v>0.1548223350253807</v>
       </c>
       <c r="I19">
-        <v>0.1085883514313919</v>
+        <v>0.1099830795262267</v>
       </c>
       <c r="J19">
-        <v>0.3968410661401777</v>
+        <v>0.3967851099830795</v>
       </c>
       <c r="K19">
-        <v>0.1224086870681145</v>
+        <v>0.1218274111675127</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02270483711747285</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07798617966436328</v>
+        <v>0.077834179357022</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1095755182625864</v>
+        <v>0.1040609137055838</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Greensboro_A.xlsx
+++ b/team_specific_matrix/Greensboro_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1875</v>
+        <v>0.1954022988505747</v>
       </c>
       <c r="C2">
-        <v>0.5982142857142857</v>
+        <v>0.5823754789272031</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01339285714285714</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.125</v>
+        <v>0.1302681992337165</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07589285714285714</v>
+        <v>0.08045977011494253</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01492537313432836</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7910447761194029</v>
+        <v>0.8145695364238411</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1940298507462687</v>
+        <v>0.1721854304635762</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.59375</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.34375</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0391304347826087</v>
+        <v>0.03937007874015748</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02173913043478261</v>
+        <v>0.01968503937007874</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08695652173913043</v>
+        <v>0.09842519685039371</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2434782608695652</v>
+        <v>0.2322834645669291</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01739130434782609</v>
+        <v>0.01968503937007874</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1782608695652174</v>
+        <v>0.1653543307086614</v>
       </c>
       <c r="R6">
-        <v>0.0782608695652174</v>
+        <v>0.09448818897637795</v>
       </c>
       <c r="S6">
-        <v>0.3347826086956522</v>
+        <v>0.3307086614173229</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09045226130653267</v>
+        <v>0.09502262443438914</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -802,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.005025125628140704</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="F7">
-        <v>0.08542713567839195</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1306532663316583</v>
+        <v>0.1447963800904978</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.05025125628140704</v>
+        <v>0.04524886877828054</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1256281407035176</v>
+        <v>0.1312217194570136</v>
       </c>
       <c r="R7">
-        <v>0.1256281407035176</v>
+        <v>0.1266968325791855</v>
       </c>
       <c r="S7">
-        <v>0.3869346733668342</v>
+        <v>0.3755656108597285</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06775067750677506</v>
+        <v>0.07263922518159806</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02168021680216802</v>
+        <v>0.01937046004842615</v>
       </c>
       <c r="E8">
-        <v>0.002710027100271003</v>
+        <v>0.002421307506053269</v>
       </c>
       <c r="F8">
-        <v>0.06775067750677506</v>
+        <v>0.06295399515738499</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1327913279132791</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02168021680216802</v>
+        <v>0.02179176755447942</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1490514905149052</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="R8">
-        <v>0.1409214092140921</v>
+        <v>0.1404358353510896</v>
       </c>
       <c r="S8">
-        <v>0.3956639566395664</v>
+        <v>0.3922518159806295</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08256880733944955</v>
+        <v>0.08786610878661087</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009174311926605505</v>
+        <v>0.008368200836820083</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08256880733944955</v>
+        <v>0.08368200836820083</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1284403669724771</v>
+        <v>0.1380753138075314</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02752293577981652</v>
+        <v>0.02510460251046025</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1467889908256881</v>
+        <v>0.1464435146443515</v>
       </c>
       <c r="R9">
-        <v>0.1422018348623853</v>
+        <v>0.1380753138075314</v>
       </c>
       <c r="S9">
-        <v>0.3807339449541284</v>
+        <v>0.3723849372384937</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08562197092084006</v>
+        <v>0.08879184861717612</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01453957996768982</v>
+        <v>0.01382823871906841</v>
       </c>
       <c r="E10">
-        <v>0.0008077544426494346</v>
+        <v>0.000727802037845706</v>
       </c>
       <c r="F10">
-        <v>0.07673667205169628</v>
+        <v>0.07641921397379912</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1082390953150242</v>
+        <v>0.1055312954876274</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02180936995153474</v>
+        <v>0.02110625909752547</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2148626817447496</v>
+        <v>0.2132459970887919</v>
       </c>
       <c r="R10">
-        <v>0.1138933764135703</v>
+        <v>0.1157205240174673</v>
       </c>
       <c r="S10">
-        <v>0.3634894991922455</v>
+        <v>0.3646288209606987</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1326860841423948</v>
+        <v>0.1313432835820895</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06796116504854369</v>
+        <v>0.06865671641791045</v>
       </c>
       <c r="K11">
-        <v>0.1941747572815534</v>
+        <v>0.191044776119403</v>
       </c>
       <c r="L11">
-        <v>0.5922330097087378</v>
+        <v>0.5970149253731343</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01294498381877023</v>
+        <v>0.01194029850746269</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.734375</v>
+        <v>0.7370892018779343</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1979166666666667</v>
+        <v>0.1877934272300469</v>
       </c>
       <c r="K12">
-        <v>0.005208333333333333</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="L12">
-        <v>0.03645833333333334</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02604166666666667</v>
+        <v>0.02347417840375587</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6764705882352942</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2352941176470588</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08823529411764706</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03930131004366812</v>
+        <v>0.04382470119521913</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1528384279475982</v>
+        <v>0.1593625498007968</v>
       </c>
       <c r="I15">
-        <v>0.05676855895196507</v>
+        <v>0.05976095617529881</v>
       </c>
       <c r="J15">
-        <v>0.2882096069868996</v>
+        <v>0.2908366533864542</v>
       </c>
       <c r="K15">
-        <v>0.06986899563318777</v>
+        <v>0.06772908366533864</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004366812227074236</v>
+        <v>0.00398406374501992</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07860262008733625</v>
+        <v>0.07171314741035857</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3100436681222707</v>
+        <v>0.302788844621514</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01333333333333333</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.16</v>
+        <v>0.1686046511627907</v>
       </c>
       <c r="I16">
-        <v>0.04666666666666667</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="J16">
-        <v>0.4333333333333333</v>
+        <v>0.4302325581395349</v>
       </c>
       <c r="K16">
-        <v>0.1066666666666667</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006666666666666667</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02666666666666667</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2066666666666667</v>
+        <v>0.186046511627907</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009615384615384616</v>
+        <v>0.01091703056768559</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2163461538461539</v>
+        <v>0.2183406113537118</v>
       </c>
       <c r="I17">
-        <v>0.09615384615384616</v>
+        <v>0.09606986899563319</v>
       </c>
       <c r="J17">
-        <v>0.4110576923076923</v>
+        <v>0.4126637554585153</v>
       </c>
       <c r="K17">
-        <v>0.09615384615384616</v>
+        <v>0.09606986899563319</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.009615384615384616</v>
+        <v>0.01091703056768559</v>
       </c>
       <c r="N17">
-        <v>0.002403846153846154</v>
+        <v>0.002183406113537118</v>
       </c>
       <c r="O17">
-        <v>0.04086538461538462</v>
+        <v>0.03930131004366812</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1177884615384615</v>
+        <v>0.1135371179039301</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01136363636363636</v>
+        <v>0.01003344481605351</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1590909090909091</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="I18">
-        <v>0.1136363636363636</v>
+        <v>0.1137123745819398</v>
       </c>
       <c r="J18">
-        <v>0.4204545454545455</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="K18">
-        <v>0.1136363636363636</v>
+        <v>0.1036789297658863</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01893939393939394</v>
+        <v>0.02006688963210702</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05681818181818182</v>
+        <v>0.0568561872909699</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1060606060606061</v>
+        <v>0.1070234113712375</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0143824027072758</v>
+        <v>0.0138568129330254</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1548223350253807</v>
+        <v>0.1562740569668976</v>
       </c>
       <c r="I19">
-        <v>0.1099830795262267</v>
+        <v>0.1062355658198614</v>
       </c>
       <c r="J19">
-        <v>0.3967851099830795</v>
+        <v>0.3972286374133949</v>
       </c>
       <c r="K19">
-        <v>0.1218274111675127</v>
+        <v>0.1216320246343341</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02030456852791878</v>
+        <v>0.02155504234026174</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.077834179357022</v>
+        <v>0.07775211701308699</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1040609137055838</v>
+        <v>0.1054657428791378</v>
       </c>
     </row>
   </sheetData>
